--- a/data-raw/2024-cmig-gender-school-graduateschool.xlsx
+++ b/data-raw/2024-cmig-gender-school-graduateschool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pessoal\Acadêmico\Projetos em R\2024-chart-challenge\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670EE896-2338-4A11-A9C7-412C0270B111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA36C6FE-0907-4014-87A9-809F15FA70F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="47">
   <si>
     <t>Brasil</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Wellness</t>
-  </si>
-  <si>
-    <t>Physical Sciences</t>
   </si>
   <si>
     <t>Social and Behavioral sciences</t>
@@ -721,7 +718,7 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -857,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -883,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -906,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -929,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -952,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -975,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -998,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1021,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -1044,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -1067,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -1090,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -1113,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -1136,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -1159,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -1182,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -1205,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -1228,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -1251,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -1270,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -1293,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -1316,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -1339,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -1362,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -1385,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -1408,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -1431,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -1454,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -1477,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -1500,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -1523,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -1546,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -1569,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -1592,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -1715,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -1740,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -1765,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -1790,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -1815,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -1840,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -1865,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -1890,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -1915,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -1940,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -1965,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -1990,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -2015,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -2040,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -2065,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -2090,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -2115,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -2140,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -2159,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -2184,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -2209,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -2234,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -2259,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -2284,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -2309,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -2334,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -2359,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -2384,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -2409,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -2434,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -2459,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -2484,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -2509,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
